--- a/biology/Médecine/Accident_médical/Accident_médical.xlsx
+++ b/biology/Médecine/Accident_médical/Accident_médical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accident_m%C3%A9dical</t>
+          <t>Accident_médical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une erreur médicale ou accident médical désigne couramment un incident ou accident évitable survenant dans le domaine de la santé et attribuable à une action humaine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Accident_m%C3%A9dical</t>
+          <t>Accident_médical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">États-Unis
-Les accidents médicaux seraient de l'ordre de 100 000 chaque année aux États-Unis[1] et en France, mais les outils statistiques destinés à les évaluer sont encore très peu développés. 
-L'erreur médicale serait responsable de près de 10 % des accidents thérapeutiques dans le milieu hospitalier[2].
-France
-De 300 000 à 500 000 événements indésirables graves se produiraient chaque année, mais ils ne sont pas recensés. 10 000 personnes meurent chaque année à l'hôpital du fait de l'exercice de la médecine[3].
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les accidents médicaux seraient de l'ordre de 100 000 chaque année aux États-Unis et en France, mais les outils statistiques destinés à les évaluer sont encore très peu développés. 
+L'erreur médicale serait responsable de près de 10 % des accidents thérapeutiques dans le milieu hospitalier.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Accident_m%C3%A9dical</t>
+          <t>Accident_médical</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 300 000 à 500 000 événements indésirables graves se produiraient chaque année, mais ils ne sont pas recensés. 10 000 personnes meurent chaque année à l'hôpital du fait de l'exercice de la médecine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accident_médical</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Accident_m%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Droit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
